--- a/EXCEL/pratice2.xlsx
+++ b/EXCEL/pratice2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6add1c34e473c11f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data analyst\data-analyst\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{26B8F53A-AC6F-4C90-B934-9741265E3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E77F655-432F-4D1C-BDAF-20A6F542F6F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D604113-95D5-4E63-8F64-B83D3CAA548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10880" yWindow="590" windowWidth="8490" windowHeight="6580" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Rank</t>
   </si>
@@ -49,13 +50,52 @@
   </si>
   <si>
     <t>verdexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =IF(D2=1,5,IF(D2=2,4,IF(D2=3,3,IF(D2=4,2,IF(D2=5,1,"please check")))))</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =IF(M4="Excellent","Avg",IF(M4="Very good","Ok",IF(M4="Good","Good",IF(M4="Ok","Very good",IF(M4="Avg","Excellent","out of context")))))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +103,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +180,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -104,10 +227,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1784D2-3881-46F7-8265-22E8A791FCBD}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,15 +563,15 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f ca="1">IF(D2=1,5,IF(D2=2,4,IF(D2=3,3,IF(D2=4,2,IF(D2=5,1,"please check")))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <f ca="1">D2*$G$1</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -464,15 +583,15 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" ca="1" si="1">IF(D3=1,5,IF(D3=2,4,IF(D3=3,3,IF(D3=4,2,IF(D3=5,1,"please check")))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" ca="1" si="2">D3*$G$1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -484,15 +603,15 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -504,15 +623,15 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -547,15 +666,15 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K9" si="3">H6</f>
@@ -573,15 +692,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -625,15 +744,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -676,6 +795,380 @@
       <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>verdexes</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F613458F-E8D7-4D06-A74F-00A0FADCE00B}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D11" ca="1" si="0">IF(C2=1,5,IF(C2=2,4,IF(C2=3,3,IF(C2=4,2,IF(C2=5,1,"please check")))))</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" ca="1" si="1">D2*$F$1</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f>IF(I2="Excellent","Avg",IF(I2="Very good","Ok",IF(I2="Good","Good",IF(I2="Ok","Very good",IF(I2="Avg","Excellent","out of context")))))</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" ca="1" si="2">RANDBETWEEN(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f>IF(I3="Excellent","Avg",IF(I3="Very good","Ok",IF(I3="Good","Good",IF(I3="Ok","Very good",IF(I3="Avg","Excellent","out of context")))))</f>
+        <v>Very good</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f>IF(I4="Excellent","Avg",IF(I4="Very good","Ok",IF(I4="Good","Good",IF(I4="Ok","Very good",IF(I4="Avg","Excellent","out of context")))))</f>
+        <v>Avg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>IF(I5="Excellent","Avg",IF(I5="Very good","Ok",IF(I5="Good","Good",IF(I5="Ok","Very good",IF(I5="Avg","Excellent","out of context")))))</f>
+        <v>Avg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f>IF(I6="Excellent","Avg",IF(I6="Very good","Ok",IF(I6="Good","Good",IF(I6="Ok","Very good",IF(I6="Avg","Excellent","out of context")))))</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f>IF(I7="Excellent","Avg",IF(I7="Very good","Ok",IF(I7="Good","Good",IF(I7="Ok","Very good",IF(I7="Avg","Excellent","out of context")))))</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f>IF(I8="Excellent","Avg",IF(I8="Very good","Ok",IF(I8="Good","Good",IF(I8="Ok","Very good",IF(I8="Avg","Excellent","out of context")))))</f>
+        <v>Avg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f>IF(I9="Excellent","Avg",IF(I9="Very good","Ok",IF(I9="Good","Good",IF(I9="Ok","Very good",IF(I9="Avg","Excellent","out of context")))))</f>
+        <v>Very good</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" ca="1" si="3">D10*$F$1</f>
+        <v>15</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>IF(I10="Excellent","Avg",IF(I10="Very good","Ok",IF(I10="Good","Good",IF(I10="Ok","Very good",IF(I10="Avg","Excellent","out of context")))))</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f>IF(I11="Excellent","Avg",IF(I11="Very good","Ok",IF(I11="Good","Good",IF(I11="Ok","Very good",IF(I11="Avg","Excellent","out of context")))))</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>IF(I12="Excellent","Avg",IF(I12="Very good","Ok",IF(I12="Good","Good",IF(I12="Ok","Very good",IF(I12="Avg","Excellent","out of context")))))</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f>IF(I13="Excellent","Avg",IF(I13="Very good","Ok",IF(I13="Good","Good",IF(I13="Ok","Very good",IF(I13="Avg","Excellent","out of context")))))</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>IF(I14="Excellent","Avg",IF(I14="Very good","Ok",IF(I14="Good","Good",IF(I14="Ok","Very good",IF(I14="Avg","Excellent","out of context")))))</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(I15="Excellent","Avg",IF(I15="Very good","Ok",IF(I15="Good","Good",IF(I15="Ok","Very good",IF(I15="Avg","Excellent","out of context")))))</f>
+        <v>out of context</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(I16="Excellent","Avg",IF(I16="Very good","Ok",IF(I16="Good","Good",IF(I16="Ok","Very good",IF(I16="Avg","Excellent","out of context")))))</f>
+        <v>out of context</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/pratice2.xlsx
+++ b/EXCEL/pratice2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data analyst\data-analyst\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D604113-95D5-4E63-8F64-B83D3CAA548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E777B45-A94A-4890-B3E0-2FE528F350DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
   </bookViews>
@@ -563,15 +563,15 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f ca="1">IF(D2=1,5,IF(D2=2,4,IF(D2=3,3,IF(D2=4,2,IF(D2=5,1,"please check")))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f ca="1">D2*$G$1</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -583,15 +583,15 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" ca="1" si="1">IF(D3=1,5,IF(D3=2,4,IF(D3=3,3,IF(D3=4,2,IF(D3=5,1,"please check")))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" ca="1" si="2">D3*$G$1</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -692,15 +692,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -718,15 +718,15 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f ca="1">IF(D8=1,5,IF(D8=2,4,IF(D8=3,3,IF(D8=4,2,IF(D8=5,1,"please check")))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -744,15 +744,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -807,7 +807,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J4" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,15 +854,15 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" ca="1" si="0">IF(C2=1,5,IF(C2=2,4,IF(C2=3,3,IF(C2=4,2,IF(C2=5,1,"please check")))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E9" ca="1" si="1">D2*$F$1</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f>IF(I2="Excellent","Avg",IF(I2="Very good","Ok",IF(I2="Good","Good",IF(I2="Ok","Very good",IF(I2="Avg","Excellent","out of context")))))</f>
+        <f t="shared" ref="J2:J16" si="2">IF(I2="Excellent","Avg",IF(I2="Very good","Ok",IF(I2="Good","Good",IF(I2="Ok","Very good",IF(I2="Avg","Excellent","out of context")))))</f>
         <v>Excellent</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" ca="1" si="2">RANDBETWEEN(1,5)</f>
+        <f t="shared" ref="C3:C11" ca="1" si="3">RANDBETWEEN(1,5)</f>
         <v>4</v>
       </c>
       <c r="D3" s="3">
@@ -907,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f>IF(I3="Excellent","Avg",IF(I3="Very good","Ok",IF(I3="Good","Good",IF(I3="Ok","Very good",IF(I3="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Very good</v>
       </c>
     </row>
@@ -919,16 +919,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="6" t="str">
-        <f>IF(I4="Excellent","Avg",IF(I4="Very good","Ok",IF(I4="Good","Good",IF(I4="Ok","Very good",IF(I4="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Avg</v>
       </c>
     </row>
@@ -952,16 +952,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="6" t="str">
-        <f>IF(I5="Excellent","Avg",IF(I5="Very good","Ok",IF(I5="Good","Good",IF(I5="Ok","Very good",IF(I5="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Avg</v>
       </c>
     </row>
@@ -985,16 +985,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1006,97 +1006,97 @@
         <v>11</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f>IF(I6="Excellent","Avg",IF(I6="Very good","Ok",IF(I6="Good","Good",IF(I6="Ok","Very good",IF(I6="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f>IF(I7="Excellent","Avg",IF(I7="Very good","Ok",IF(I7="Good","Good",IF(I7="Ok","Very good",IF(I7="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f>IF(I8="Excellent","Avg",IF(I8="Very good","Ok",IF(I8="Good","Good",IF(I8="Ok","Very good",IF(I8="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Avg</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f>IF(I9="Excellent","Avg",IF(I9="Very good","Ok",IF(I9="Good","Good",IF(I9="Ok","Very good",IF(I9="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Very good</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E11" ca="1" si="3">D10*$F$1</f>
-        <v>15</v>
+        <f t="shared" ref="E10:E11" ca="1" si="4">D10*$F$1</f>
+        <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF(I10="Excellent","Avg",IF(I10="Very good","Ok",IF(I10="Good","Good",IF(I10="Ok","Very good",IF(I10="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="D11" s="3">
@@ -1104,14 +1104,14 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f>IF(I11="Excellent","Avg",IF(I11="Very good","Ok",IF(I11="Good","Good",IF(I11="Ok","Very good",IF(I11="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="7" t="str">
-        <f>IF(I12="Excellent","Avg",IF(I12="Very good","Ok",IF(I12="Good","Good",IF(I12="Ok","Very good",IF(I12="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="8" t="str">
-        <f>IF(I13="Excellent","Avg",IF(I13="Very good","Ok",IF(I13="Good","Good",IF(I13="Ok","Very good",IF(I13="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>IF(I14="Excellent","Avg",IF(I14="Very good","Ok",IF(I14="Good","Good",IF(I14="Ok","Very good",IF(I14="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IF(I15="Excellent","Avg",IF(I15="Very good","Ok",IF(I15="Good","Good",IF(I15="Ok","Very good",IF(I15="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>out of context</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(I16="Excellent","Avg",IF(I16="Very good","Ok",IF(I16="Good","Good",IF(I16="Ok","Very good",IF(I16="Avg","Excellent","out of context")))))</f>
+        <f t="shared" si="2"/>
         <v>out of context</v>
       </c>
     </row>
